--- a/Maya Camera Project Sheet.xlsx
+++ b/Maya Camera Project Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dwmbs\Desktop\school work uvu\camera project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1A35F0-E9EE-4CD5-BF6E-6BD0DE929033}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B74B56-D266-482E-81D9-D1285B3C3BEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10776" yWindow="804" windowWidth="11496" windowHeight="10536" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pre-Production Summary" sheetId="1" r:id="rId1"/>
@@ -977,7 +977,7 @@
       </c>
       <c r="B4" s="13">
         <f>TotalModelTime</f>
-        <v>758</v>
+        <v>858</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="13.2">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="B10" s="23">
         <f>SUM(B4:B9)</f>
-        <v>859.6</v>
+        <v>959.6</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.6">
@@ -1094,8 +1094,8 @@
   </sheetPr>
   <dimension ref="A1:Z97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2113,13 +2113,15 @@
       <c r="C54" s="7">
         <v>0</v>
       </c>
-      <c r="D54" s="7"/>
+      <c r="D54" s="7">
+        <v>6</v>
+      </c>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="11">
         <f t="shared" ref="H54:H95" si="1">SUM(C54:G54)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="13.2">
@@ -2132,13 +2134,15 @@
       <c r="C55" s="7">
         <v>7</v>
       </c>
-      <c r="D55" s="7"/>
+      <c r="D55" s="7">
+        <v>7</v>
+      </c>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="11">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="13.2">
@@ -2151,13 +2155,15 @@
       <c r="C56" s="7">
         <v>7</v>
       </c>
-      <c r="D56" s="7"/>
+      <c r="D56" s="7">
+        <v>8</v>
+      </c>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="11">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="13.2">
@@ -2170,13 +2176,15 @@
       <c r="C57" s="7">
         <v>0</v>
       </c>
-      <c r="D57" s="7"/>
+      <c r="D57" s="7">
+        <v>7</v>
+      </c>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="13.2">
@@ -2189,13 +2197,15 @@
       <c r="C58" s="7">
         <v>0</v>
       </c>
-      <c r="D58" s="7"/>
+      <c r="D58" s="7">
+        <v>4</v>
+      </c>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="13.2">
@@ -2208,13 +2218,15 @@
       <c r="C59" s="7">
         <v>0</v>
       </c>
-      <c r="D59" s="7"/>
+      <c r="D59" s="7">
+        <v>2</v>
+      </c>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="13.2">
@@ -2227,13 +2239,15 @@
       <c r="C60" s="7">
         <v>0</v>
       </c>
-      <c r="D60" s="7"/>
+      <c r="D60" s="7">
+        <v>2</v>
+      </c>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="13.2">
@@ -2246,13 +2260,15 @@
       <c r="C61" s="7">
         <v>3</v>
       </c>
-      <c r="D61" s="7"/>
+      <c r="D61" s="7">
+        <v>3</v>
+      </c>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c r="H61" s="11">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="13.2">
@@ -2265,13 +2281,15 @@
       <c r="C62" s="7">
         <v>0</v>
       </c>
-      <c r="D62" s="7"/>
+      <c r="D62" s="7">
+        <v>5</v>
+      </c>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="13.2">
@@ -2284,13 +2302,15 @@
       <c r="C63" s="7">
         <v>5</v>
       </c>
-      <c r="D63" s="7"/>
+      <c r="D63" s="7">
+        <v>5</v>
+      </c>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="11">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="13.2">
@@ -2303,13 +2323,15 @@
       <c r="C64" s="7">
         <v>6</v>
       </c>
-      <c r="D64" s="7"/>
+      <c r="D64" s="7">
+        <v>4</v>
+      </c>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="11">
         <f>SUM(C64:G64)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="13.2">
@@ -2322,13 +2344,15 @@
       <c r="C65" s="7">
         <v>0</v>
       </c>
-      <c r="D65" s="7"/>
+      <c r="D65" s="7">
+        <v>5</v>
+      </c>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="13.2">
@@ -2341,13 +2365,15 @@
       <c r="C66" s="7">
         <v>0</v>
       </c>
-      <c r="D66" s="7"/>
+      <c r="D66" s="7">
+        <v>1</v>
+      </c>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="13.2">
@@ -2360,13 +2386,15 @@
       <c r="C67" s="7">
         <v>0</v>
       </c>
-      <c r="D67" s="7"/>
+      <c r="D67" s="7">
+        <v>1</v>
+      </c>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.2">
@@ -2379,13 +2407,15 @@
       <c r="C68" s="7">
         <v>20</v>
       </c>
-      <c r="D68" s="7"/>
+      <c r="D68" s="7">
+        <v>8</v>
+      </c>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="11">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="13.2">
@@ -2398,13 +2428,15 @@
       <c r="C69" s="7">
         <v>8</v>
       </c>
-      <c r="D69" s="7"/>
+      <c r="D69" s="7">
+        <v>6</v>
+      </c>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c r="H69" s="11">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="13.2">
@@ -2417,13 +2449,15 @@
       <c r="C70" s="7">
         <v>1</v>
       </c>
-      <c r="D70" s="7"/>
+      <c r="D70" s="7">
+        <v>2</v>
+      </c>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="11">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="13.2">
@@ -2436,13 +2470,15 @@
       <c r="C71" s="7">
         <v>0</v>
       </c>
-      <c r="D71" s="7"/>
+      <c r="D71" s="7">
+        <v>2</v>
+      </c>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c r="H71" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="13.2">
@@ -2455,13 +2491,15 @@
       <c r="C72" s="7">
         <v>0</v>
       </c>
-      <c r="D72" s="7"/>
+      <c r="D72" s="7">
+        <v>2</v>
+      </c>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="13.2">
@@ -2474,13 +2512,15 @@
       <c r="C73" s="7">
         <v>0</v>
       </c>
-      <c r="D73" s="7"/>
+      <c r="D73" s="7">
+        <v>5</v>
+      </c>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="13.2">
@@ -2493,13 +2533,15 @@
       <c r="C74" s="7">
         <v>0</v>
       </c>
-      <c r="D74" s="7"/>
+      <c r="D74" s="7">
+        <v>6</v>
+      </c>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="13.2">
@@ -2512,13 +2554,15 @@
       <c r="C75" s="7">
         <v>6</v>
       </c>
-      <c r="D75" s="7"/>
+      <c r="D75" s="7">
+        <v>7</v>
+      </c>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="H75" s="11">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="13.2">
@@ -2531,13 +2575,15 @@
       <c r="C76" s="7">
         <v>0</v>
       </c>
-      <c r="D76" s="7"/>
+      <c r="D76" s="7">
+        <v>2</v>
+      </c>
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c r="H76" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="13.2">
@@ -2908,7 +2954,7 @@
       </c>
       <c r="H96" s="16">
         <f>SUM(H54:H95)</f>
-        <v>92</v>
+        <v>192</v>
       </c>
       <c r="J96" s="21"/>
       <c r="K96" s="21"/>
@@ -2922,7 +2968,7 @@
       </c>
       <c r="H97" s="20">
         <f>SUM(H8, H52, H96)</f>
-        <v>758</v>
+        <v>858</v>
       </c>
     </row>
   </sheetData>

--- a/Maya Camera Project Sheet.xlsx
+++ b/Maya Camera Project Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dwmbs\Desktop\school work uvu\camera project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B74B56-D266-482E-81D9-D1285B3C3BEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929E3DAB-FE67-40E6-ABAC-DCFD76AA82F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -977,7 +977,7 @@
       </c>
       <c r="B4" s="13">
         <f>TotalModelTime</f>
-        <v>858</v>
+        <v>957</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="13.2">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="B10" s="23">
         <f>SUM(B4:B9)</f>
-        <v>959.6</v>
+        <v>1058.5999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.6">
@@ -1094,8 +1094,8 @@
   </sheetPr>
   <dimension ref="A1:Z97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2596,13 +2596,15 @@
       <c r="C77" s="7">
         <v>6</v>
       </c>
-      <c r="D77" s="7"/>
+      <c r="D77" s="7">
+        <v>6</v>
+      </c>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c r="H77" s="11">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="13.2">
@@ -2615,13 +2617,15 @@
       <c r="C78" s="7">
         <v>5</v>
       </c>
-      <c r="D78" s="7"/>
+      <c r="D78" s="7">
+        <v>5</v>
+      </c>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c r="H78" s="11">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.2">
@@ -2634,13 +2638,15 @@
       <c r="C79" s="7">
         <v>0</v>
       </c>
-      <c r="D79" s="7"/>
+      <c r="D79" s="7">
+        <v>8</v>
+      </c>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c r="H79" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.2">
@@ -2653,13 +2659,15 @@
       <c r="C80" s="7">
         <v>0</v>
       </c>
-      <c r="D80" s="7"/>
+      <c r="D80" s="7">
+        <v>7</v>
+      </c>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c r="H80" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="13.2">
@@ -2672,13 +2680,15 @@
       <c r="C81" s="7">
         <v>5</v>
       </c>
-      <c r="D81" s="7"/>
+      <c r="D81" s="7">
+        <v>3</v>
+      </c>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c r="H81" s="11">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="13.2">
@@ -2691,13 +2701,15 @@
       <c r="C82" s="7">
         <v>0</v>
       </c>
-      <c r="D82" s="7"/>
+      <c r="D82" s="7">
+        <v>5</v>
+      </c>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c r="H82" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="13.2">
@@ -2710,13 +2722,15 @@
       <c r="C83" s="7">
         <v>0</v>
       </c>
-      <c r="D83" s="7"/>
+      <c r="D83" s="7">
+        <v>2</v>
+      </c>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c r="H83" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="13.2">
@@ -2729,13 +2743,15 @@
       <c r="C84" s="7">
         <v>6</v>
       </c>
-      <c r="D84" s="7"/>
+      <c r="D84" s="7">
+        <v>5</v>
+      </c>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="11">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="13.2">
@@ -2748,13 +2764,15 @@
       <c r="C85" s="7">
         <v>0</v>
       </c>
-      <c r="D85" s="7"/>
+      <c r="D85" s="7">
+        <v>4</v>
+      </c>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c r="H85" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="13.2">
@@ -2767,13 +2785,15 @@
       <c r="C86" s="7">
         <v>3</v>
       </c>
-      <c r="D86" s="7"/>
+      <c r="D86" s="7">
+        <v>7</v>
+      </c>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c r="H86" s="11">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="13.2">
@@ -2786,13 +2806,15 @@
       <c r="C87" s="7">
         <v>0</v>
       </c>
-      <c r="D87" s="7"/>
+      <c r="D87" s="7">
+        <v>6</v>
+      </c>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c r="H87" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="13.2">
@@ -2805,13 +2827,15 @@
       <c r="C88" s="7">
         <v>0</v>
       </c>
-      <c r="D88" s="7"/>
+      <c r="D88" s="7">
+        <v>4</v>
+      </c>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c r="H88" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="13.2">
@@ -2824,13 +2848,15 @@
       <c r="C89" s="7">
         <v>0</v>
       </c>
-      <c r="D89" s="7"/>
+      <c r="D89" s="7">
+        <v>1</v>
+      </c>
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c r="H89" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="13.2">
@@ -2843,13 +2869,15 @@
       <c r="C90" s="7">
         <v>0</v>
       </c>
-      <c r="D90" s="7"/>
+      <c r="D90" s="7">
+        <v>4</v>
+      </c>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c r="H90" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="13.2">
@@ -2862,13 +2890,15 @@
       <c r="C91" s="7">
         <v>0</v>
       </c>
-      <c r="D91" s="7"/>
+      <c r="D91" s="7">
+        <v>6</v>
+      </c>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c r="H91" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="13.2">
@@ -2881,13 +2911,15 @@
       <c r="C92" s="7">
         <v>0</v>
       </c>
-      <c r="D92" s="7"/>
+      <c r="D92" s="7">
+        <v>6</v>
+      </c>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c r="H92" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="13.2">
@@ -2900,13 +2932,15 @@
       <c r="C93" s="7">
         <v>3</v>
       </c>
-      <c r="D93" s="7"/>
+      <c r="D93" s="7">
+        <v>9</v>
+      </c>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c r="H93" s="11">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="13.2">
@@ -2919,13 +2953,15 @@
       <c r="C94" s="7">
         <v>1</v>
       </c>
-      <c r="D94" s="7"/>
+      <c r="D94" s="7">
+        <v>5</v>
+      </c>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c r="H94" s="11">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="13.2">
@@ -2938,13 +2974,15 @@
       <c r="C95" s="7">
         <v>0</v>
       </c>
-      <c r="D95" s="7"/>
+      <c r="D95" s="7">
+        <v>6</v>
+      </c>
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c r="H95" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="17.25" customHeight="1">
@@ -2954,7 +2992,7 @@
       </c>
       <c r="H96" s="16">
         <f>SUM(H54:H95)</f>
-        <v>192</v>
+        <v>291</v>
       </c>
       <c r="J96" s="21"/>
       <c r="K96" s="21"/>
@@ -2968,7 +3006,7 @@
       </c>
       <c r="H97" s="20">
         <f>SUM(H8, H52, H96)</f>
-        <v>858</v>
+        <v>957</v>
       </c>
     </row>
   </sheetData>
